--- a/resdataTemp0.xlsx
+++ b/resdataTemp0.xlsx
@@ -525,7 +525,7 @@
         <v>950.6571241658536</v>
       </c>
       <c r="E3" t="n">
-        <v>372.9369262004089</v>
+        <v>458.3005056961188</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -559,7 +559,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>50.38453751542917</v>
+        <v>9.716276422961615</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -584,31 +584,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>569.8377187833005</v>
+        <v>541.2834615603546</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>1019.745379755581</v>
+        <v>962.7079185236164</v>
       </c>
       <c r="E5" t="n">
-        <v>423.3214637158381</v>
+        <v>468.0167821190804</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7717940796797779</v>
+        <v>0.7788128238568737</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1098758912194497</v>
+        <v>0.1212829911397665</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0374462402155577</v>
+        <v>0.03138441753260712</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07412337322490289</v>
+        <v>0.06197423636503667</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006760415660311905</v>
+        <v>0.006545531105716052</v>
       </c>
     </row>
     <row r="6">
@@ -618,31 +618,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>478.4928606036818</v>
+        <v>466.2044181947613</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>913.9203599362876</v>
+        <v>876.810225231701</v>
       </c>
       <c r="E6" t="n">
-        <v>423.3214637158381</v>
+        <v>468.0167821190804</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7717940796797779</v>
+        <v>0.7788128238568737</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1098758912194497</v>
+        <v>0.1212829911397665</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0374462402155577</v>
+        <v>0.03138441753260712</v>
       </c>
       <c r="I6" t="n">
-        <v>0.07412337322490289</v>
+        <v>0.06197423636503667</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006760415660311905</v>
+        <v>0.006545531105716052</v>
       </c>
     </row>
     <row r="7">
@@ -652,31 +652,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>263.3321950677819</v>
+        <v>295.846922480902</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>673.497287214387</v>
+        <v>687.4354593203187</v>
       </c>
       <c r="E7" t="n">
-        <v>423.3214637158381</v>
+        <v>468.0167821190804</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7717940796797779</v>
+        <v>0.7788128238568737</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1098758912194497</v>
+        <v>0.1212829911397665</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0374462402155577</v>
+        <v>0.03138441753260712</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07412337322490289</v>
+        <v>0.06197423636503667</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006760415660311905</v>
+        <v>0.006545531105716052</v>
       </c>
     </row>
     <row r="8">
@@ -686,31 +686,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>195.6063050200819</v>
+        <v>227.1888897622831</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>600.2336472647615</v>
+        <v>613.1868806389674</v>
       </c>
       <c r="E8" t="n">
-        <v>423.3214637158381</v>
+        <v>468.0167821190804</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7717940796797779</v>
+        <v>0.7788128238568737</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1098758912194497</v>
+        <v>0.1212829911397665</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0374462402155577</v>
+        <v>0.03138441753260712</v>
       </c>
       <c r="I8" t="n">
-        <v>0.07412337322490289</v>
+        <v>0.06197423636503667</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006760415660311905</v>
+        <v>0.006545531105716052</v>
       </c>
     </row>
     <row r="9">
@@ -720,31 +720,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>194.7104738922443</v>
+        <v>226.268304162767</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>599.2712314009387</v>
+        <v>612.1986196117406</v>
       </c>
       <c r="E9" t="n">
-        <v>423.3214637158381</v>
+        <v>468.0167821190804</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7717940796797779</v>
+        <v>0.7788128238568737</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1098758912194497</v>
+        <v>0.1212829911397665</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0374462402155577</v>
+        <v>0.03138441753260712</v>
       </c>
       <c r="I9" t="n">
-        <v>0.07412337322490289</v>
+        <v>0.06197423636503667</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006760415660311905</v>
+        <v>0.006545531105716052</v>
       </c>
     </row>
     <row r="10">
@@ -754,31 +754,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>143.8154865925053</v>
+        <v>166.5129960182783</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>544.8473779765551</v>
+        <v>548.4208627305504</v>
       </c>
       <c r="E10" t="n">
-        <v>423.3214637158381</v>
+        <v>468.0167821190804</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7717940796797779</v>
+        <v>0.7788128238568737</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1098758912194497</v>
+        <v>0.1212829911397665</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0374462402155577</v>
+        <v>0.03138441753260712</v>
       </c>
       <c r="I10" t="n">
-        <v>0.07412337322490289</v>
+        <v>0.06197423636503667</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006760415660311905</v>
+        <v>0.006545531105716052</v>
       </c>
     </row>
     <row r="11">
@@ -788,31 +788,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>88.5589578607771</v>
+        <v>100.3725808219107</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>486.2524804622064</v>
+        <v>478.5627643528023</v>
       </c>
       <c r="E11" t="n">
-        <v>423.3214637158381</v>
+        <v>468.0167821190804</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7717940796797779</v>
+        <v>0.7788128238568737</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1098758912194497</v>
+        <v>0.1212829911397665</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0374462402155577</v>
+        <v>0.03138441753260712</v>
       </c>
       <c r="I11" t="n">
-        <v>0.07412337322490289</v>
+        <v>0.06197423636503667</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006760415660311905</v>
+        <v>0.006545531105716052</v>
       </c>
     </row>
     <row r="12">
@@ -831,7 +831,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>47.75995874871821</v>
+        <v>9.210146287632094</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -855,7 +855,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>2.624578766710999</v>
+        <v>0.5061301353295261</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6672190611676428</v>
+        <v>0.6616886662301227</v>
       </c>
       <c r="C2" t="n">
-        <v>0.695214008159727</v>
+        <v>0.6913581281671325</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9597319003019107</v>
+        <v>0.9570852489784609</v>
       </c>
       <c r="E2" t="n">
         <v>0.8074</v>
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>73.18865159646056</v>
+        <v>72.49800951322707</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -993,12 +993,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33.96569674585376</v>
+        <v>33.59599842511938</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8493064749633633</v>
+        <v>0.8492997815218047</v>
       </c>
     </row>
     <row r="9">
@@ -1008,12 +1008,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.14134449690656</v>
+        <v>9.063459488050063</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8372089948959196</v>
+        <v>0.8372096003270489</v>
       </c>
     </row>
     <row r="10">
@@ -1023,12 +1023,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.378030465369246</v>
+        <v>5.326396790523922</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8149529448943991</v>
+        <v>0.8149526275927992</v>
       </c>
     </row>
     <row r="11">
@@ -1038,12 +1038,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.703579888331</v>
+        <v>24.51215480953371</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.8491802970917117</v>
+        <v>0.8505672683373555</v>
       </c>
     </row>
     <row r="12">
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1282762114853548</v>
+        <v>0.1486986226894435</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1325192772545945</v>
+        <v>0.1538386656136119</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9679815204463574</v>
+        <v>0.9665880947181489</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4046185165069858</v>
+        <v>0.3457708517751428</v>
       </c>
     </row>
     <row r="13">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>321635.6536743118</v>
+        <v>47628.09338813852</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -1085,7 +1085,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>482240.5521218461</v>
+        <v>71410.61050016846</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -1134,10 +1134,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42391.23706057701</v>
+        <v>42413.06803015328</v>
       </c>
       <c r="C2" t="n">
-        <v>42819.43137432021</v>
+        <v>42841.4828587407</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91610.93514232719</v>
+        <v>91906.6060580402</v>
       </c>
       <c r="C3" t="n">
-        <v>92536.29812356281</v>
+        <v>92834.95561418202</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1166,10 +1166,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39825.72677066549</v>
+        <v>39741.38741324162</v>
       </c>
       <c r="C4" t="n">
-        <v>40228.00683905605</v>
+        <v>40142.81556893093</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1182,10 +1182,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>514.921583633409</v>
+        <v>514.7339370699458</v>
       </c>
       <c r="C5" t="n">
-        <v>520.1228117509182</v>
+        <v>519.9332697676221</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32900.29362914743</v>
+        <v>32839.39151529083</v>
       </c>
       <c r="C6" t="n">
-        <v>33232.61982742165</v>
+        <v>33171.10254069781</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1214,10 +1214,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38930.99621447013</v>
+        <v>38851.28998732383</v>
       </c>
       <c r="C7" t="n">
-        <v>39324.23860047488</v>
+        <v>39243.72725992306</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>80155.62493005236</v>
+        <v>15029.19737581764</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -1356,7 +1356,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>252622.4552834236</v>
+        <v>37408.55819458896</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -1414,7 +1414,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>492735715.5557473</v>
+        <v>92387946.66670261</v>
       </c>
       <c r="C3" t="n">
         <v>101.3297933484711</v>
@@ -1498,16 +1498,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>506.3133034584083</v>
+        <v>514.8057620518172</v>
       </c>
       <c r="C3" t="n">
-        <v>7.927303381991388</v>
+        <v>6.852883294522957</v>
       </c>
       <c r="D3" t="n">
-        <v>3415.945551022296</v>
+        <v>3448.835581517775</v>
       </c>
       <c r="E3" t="n">
-        <v>64.06044208894689</v>
+        <v>58.61502340974381</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -1519,16 +1519,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>297.5508807028934</v>
+        <v>287.8797143259446</v>
       </c>
       <c r="C4" t="n">
-        <v>8.2954917654213</v>
+        <v>7.214630636992609</v>
       </c>
       <c r="D4" t="n">
-        <v>2754.213041852372</v>
+        <v>2769.795204046605</v>
       </c>
       <c r="E4" t="n">
-        <v>64.06044208894689</v>
+        <v>58.61502340974381</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -1540,16 +1540,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>296.2789186898038</v>
+        <v>286.8129954859094</v>
       </c>
       <c r="C5" t="n">
-        <v>8.2954917654213</v>
+        <v>7.214630636992609</v>
       </c>
       <c r="D5" t="n">
-        <v>1324.154364979883</v>
+        <v>1272.826009069202</v>
       </c>
       <c r="E5" t="n">
-        <v>64.06044208894689</v>
+        <v>58.61502340974381</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -1561,16 +1561,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.2090434826771</v>
+        <v>161.5145810888122</v>
       </c>
       <c r="C6" t="n">
-        <v>8.2954917654213</v>
+        <v>7.214630636992609</v>
       </c>
       <c r="D6" t="n">
-        <v>702.4773743635579</v>
+        <v>685.8867519444328</v>
       </c>
       <c r="E6" t="n">
-        <v>64.06044208894689</v>
+        <v>58.61502340974381</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -1582,16 +1582,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>163.8128740799996</v>
+        <v>155.7691087914088</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6805473880905354</v>
+        <v>0.5545003417239452</v>
       </c>
       <c r="D7" t="n">
-        <v>692.0619129741217</v>
+        <v>657.1200374672545</v>
       </c>
       <c r="E7" t="n">
-        <v>64.06044208894689</v>
+        <v>58.61502340974381</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -1603,16 +1603,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.2197693477678</v>
+        <v>169.507437071885</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6744018921285251</v>
+        <v>0.5480678811714748</v>
       </c>
       <c r="D8" t="n">
-        <v>2794.588351620187</v>
+        <v>2785.594880564192</v>
       </c>
       <c r="E8" t="n">
-        <v>15.58766652796092</v>
+        <v>13.91687428454897</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -1624,16 +1624,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>163.8128739456487</v>
+        <v>155.7691086733485</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6805473880905354</v>
+        <v>0.5545003417239452</v>
       </c>
       <c r="D9" t="n">
-        <v>2761.559175961115</v>
+        <v>2752.692715593514</v>
       </c>
       <c r="E9" t="n">
-        <v>15.58766652796092</v>
+        <v>13.91687428454897</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -1645,16 +1645,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>161.9564904627047</v>
+        <v>154.5344325443517</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6805473880905354</v>
+        <v>0.5545003417239452</v>
       </c>
       <c r="D10" t="n">
-        <v>683.9973800394521</v>
+        <v>651.7848507944059</v>
       </c>
       <c r="E10" t="n">
-        <v>79.64810861690781</v>
+        <v>72.53189769429278</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -1666,16 +1666,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>161.9564904627047</v>
+        <v>154.5344325443517</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6805473880905354</v>
+        <v>0.5545003417239452</v>
       </c>
       <c r="D11" t="n">
-        <v>683.9973800394521</v>
+        <v>651.7848507944059</v>
       </c>
       <c r="E11" t="n">
-        <v>90.06335490135663</v>
+        <v>80.88807069726985</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -1690,13 +1690,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6805473880905354</v>
+        <v>0.5545003417239452</v>
       </c>
       <c r="D12" t="n">
-        <v>251.7350847928643</v>
+        <v>251.6292449393406</v>
       </c>
       <c r="E12" t="n">
-        <v>90.06161378205236</v>
+        <v>80.89158052659421</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -1708,16 +1708,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.47972551140316</v>
+        <v>48.94197354679312</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>195.2186502300161</v>
+        <v>205.5092576433666</v>
       </c>
       <c r="E13" t="n">
-        <v>74.86815086859305</v>
+        <v>72.53093383385479</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -1729,16 +1729,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.47972551140316</v>
+        <v>48.41139861299581</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>195.2186502300161</v>
+        <v>203.2916656854825</v>
       </c>
       <c r="E14" t="n">
-        <v>74.86815086859305</v>
+        <v>63.99890380623652</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -1750,16 +1750,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>86.21796609247804</v>
+        <v>78.91488528633431</v>
       </c>
       <c r="C15" t="n">
-        <v>0.06068602252239569</v>
+        <v>0.04536925362976062</v>
       </c>
       <c r="D15" t="n">
-        <v>361.1340212460258</v>
+        <v>330.4570733206295</v>
       </c>
       <c r="E15" t="n">
-        <v>13.51172419062353</v>
+        <v>59.55945719846321</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -1771,16 +1771,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>51.13389230984245</v>
+        <v>50.23846651509615</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06068601348140216</v>
+        <v>0.04536943219541079</v>
       </c>
       <c r="D16" t="n">
-        <v>214.1249289326391</v>
+        <v>210.3673850265696</v>
       </c>
       <c r="E16" t="n">
-        <v>13.51188987756004</v>
+        <v>59.5585328095963</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -1801,7 +1801,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>149.652616588064</v>
+        <v>626.5503871862227</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1822,7 +1822,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>18.85187684797621</v>
+        <v>78.92712474783789</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -1834,16 +1834,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>67.81368019364928</v>
+        <v>64.32679058015557</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>283.9358789708095</v>
+        <v>269.3362721591114</v>
       </c>
       <c r="E19" t="n">
-        <v>18.85187684797621</v>
+        <v>78.92712474783789</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1855,16 +1855,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>140.6668844644918</v>
+        <v>102.8716595860871</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09355726155417098</v>
+        <v>0.1122509340334003</v>
       </c>
       <c r="D20" t="n">
-        <v>2758.568248171277</v>
+        <v>2650.34649508532</v>
       </c>
       <c r="E20" t="n">
-        <v>2.703064888423513</v>
+        <v>23.45281797715842</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1876,16 +1876,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>96.34352834873332</v>
+        <v>101.4125638070703</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08887939847646242</v>
+        <v>0.1066383873317303</v>
       </c>
       <c r="D21" t="n">
-        <v>403.7496952295415</v>
+        <v>425.1261400232353</v>
       </c>
       <c r="E21" t="n">
-        <v>2.703064888423513</v>
+        <v>23.45281797715842</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -1897,16 +1897,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>86.20646669885755</v>
+        <v>76.56884406672944</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>360.9464760681166</v>
+        <v>320.5937501073962</v>
       </c>
       <c r="E22" t="n">
-        <v>149.652616588064</v>
+        <v>626.5503871862227</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -1927,7 +1927,7 @@
         <v>403.05449408507</v>
       </c>
       <c r="E23" t="n">
-        <v>149.652616588064</v>
+        <v>626.5503871862227</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -1939,7 +1939,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>46.03839905742083</v>
+        <v>45.59915238686636</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -1948,7 +1948,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>149.652616588064</v>
+        <v>626.5503871862227</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -1960,16 +1960,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111.0445873585946</v>
+        <v>80.17792906229545</v>
       </c>
       <c r="C25" t="n">
-        <v>0.06388002370778494</v>
+        <v>0.04775710908395855</v>
       </c>
       <c r="D25" t="n">
-        <v>2702.606974447627</v>
+        <v>2541.825298873012</v>
       </c>
       <c r="E25" t="n">
-        <v>10.80865406005439</v>
+        <v>36.10672295036716</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -1981,19 +1981,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>503.4260226416751</v>
+        <v>512.0187207638722</v>
       </c>
       <c r="C26" t="n">
-        <v>7.3215791626587</v>
+        <v>6.252859136228496</v>
       </c>
       <c r="D26" t="n">
-        <v>3415.945551022296</v>
+        <v>3448.835581517775</v>
       </c>
       <c r="E26" t="n">
-        <v>59.28048434063214</v>
+        <v>50.08299841925008</v>
       </c>
       <c r="F26" t="n">
-        <v>6.786258709088245</v>
+        <v>6.897469856561144</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2006,19 +2006,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>194.5607110243654</v>
+        <v>195.3536704475105</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5214235791241987</v>
+        <v>0.4111920580290597</v>
       </c>
       <c r="D27" t="n">
-        <v>2842.979639497634</v>
+        <v>2850.579524782382</v>
       </c>
       <c r="E27" t="n">
-        <v>59.28048434063214</v>
+        <v>50.08299841925008</v>
       </c>
       <c r="F27" t="n">
-        <v>7.014868013002267</v>
+        <v>7.13786655360824</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2031,19 +2031,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>174.7191917978662</v>
+        <v>166.8834083973177</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5905718280849355</v>
+        <v>0.4663111916779216</v>
       </c>
       <c r="D28" t="n">
-        <v>2794.588351620187</v>
+        <v>2785.594880564192</v>
       </c>
       <c r="E28" t="n">
-        <v>15.58766652796092</v>
+        <v>13.91687428454897</v>
       </c>
       <c r="F28" t="n">
-        <v>6.85364788629715</v>
+        <v>6.938290699026805</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2056,19 +2056,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>189.9269192541083</v>
+        <v>188.6775540968333</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5214235791241987</v>
+        <v>0.4111920580290597</v>
       </c>
       <c r="D29" t="n">
-        <v>2832.904497403953</v>
+        <v>2836.448510363083</v>
       </c>
       <c r="E29" t="n">
-        <v>74.86815086859305</v>
+        <v>63.99987270379905</v>
       </c>
       <c r="F29" t="n">
-        <v>6.993219081861808</v>
+        <v>7.107487340039116</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2081,22 +2081,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>126.3556726221171</v>
+        <v>102.8706785385172</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2420925577399319</v>
+        <v>0.1122583012644724</v>
       </c>
       <c r="D30" t="n">
-        <v>2710.805255057882</v>
+        <v>2650.343870629224</v>
       </c>
       <c r="E30" t="n">
-        <v>74.86815086859305</v>
+        <v>63.99987270379905</v>
       </c>
       <c r="F30" t="n">
-        <v>7.052646455553649</v>
+        <v>7.240961445731871</v>
       </c>
       <c r="G30" t="n">
-        <v>99.80749653749584</v>
+        <v>98.67784297455309</v>
       </c>
     </row>
     <row r="31">
@@ -2106,22 +2106,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>110.4697532474319</v>
+        <v>80.17644885230862</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1456559129739893</v>
+        <v>0.04775425011740235</v>
       </c>
       <c r="D31" t="n">
-        <v>2638.971899979985</v>
+        <v>2541.820379167791</v>
       </c>
       <c r="E31" t="n">
-        <v>74.86815086859305</v>
+        <v>40.54713845570299</v>
       </c>
       <c r="F31" t="n">
-        <v>7.095164651996865</v>
+        <v>7.321382755833269</v>
       </c>
       <c r="G31" t="n">
-        <v>97.63044981061493</v>
+        <v>95.60181767525808</v>
       </c>
     </row>
     <row r="32">
@@ -2131,22 +2131,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>110.4697532474319</v>
+        <v>42.53212298934869</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1456559129739893</v>
+        <v>0.00844189408636176</v>
       </c>
       <c r="D32" t="n">
-        <v>2638.971899979985</v>
+        <v>2541.820379167791</v>
       </c>
       <c r="E32" t="n">
-        <v>74.86815086859305</v>
+        <v>4.440370996640219</v>
       </c>
       <c r="F32" t="n">
-        <v>7.095164651996865</v>
+        <v>8.093666891807109</v>
       </c>
       <c r="G32" t="n">
-        <v>97.63044981061493</v>
+        <v>98.49115211607781</v>
       </c>
     </row>
     <row r="33">
@@ -2156,22 +2156,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>46.21277199990021</v>
+        <v>23.67526159835353</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01020966076623527</v>
+        <v>0.002928046473326006</v>
       </c>
       <c r="D33" t="n">
-        <v>2309.010766951734</v>
+        <v>2536.999615281549</v>
       </c>
       <c r="E33" t="n">
-        <v>74.86815086859305</v>
+        <v>4.440370996640219</v>
       </c>
       <c r="F33" t="n">
-        <v>7.278664905679039</v>
+        <v>8.561214075665811</v>
       </c>
       <c r="G33" t="n">
-        <v>88.47507111033079</v>
+        <v>99.70937921976994</v>
       </c>
     </row>
     <row r="34">
@@ -2181,16 +2181,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.21277199908093</v>
+        <v>23.67526159835353</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01020966076623527</v>
+        <v>0.002928046473326006</v>
       </c>
       <c r="D34" t="n">
-        <v>193.5052886737717</v>
+        <v>99.28908812998316</v>
       </c>
       <c r="E34" t="n">
-        <v>74.86815086859305</v>
+        <v>4.440370996640219</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2202,16 +2202,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.47972551140316</v>
+        <v>25.69728156312095</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>195.2186502300161</v>
+        <v>108.3853024904936</v>
       </c>
       <c r="E35" t="n">
-        <v>74.86815086859305</v>
+        <v>4.440370996640219</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -2307,16 +2307,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>527.7552478383965</v>
+        <v>499.8058029673687</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3529.59526533892</v>
+        <v>3467.812673377135</v>
       </c>
       <c r="E40" t="n">
-        <v>38.57371675874336</v>
+        <v>7.232580410818838</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -2328,16 +2328,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>80</v>
+        <v>52.9</v>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="D41" t="n">
-        <v>336.57</v>
+        <v>222.143453014773</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>8.532030027618275</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -2349,16 +2349,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>542.7552478383965</v>
+        <v>514.8058029673687</v>
       </c>
       <c r="C42" t="n">
-        <v>3.607261357686788</v>
+        <v>6.852693243694575</v>
       </c>
       <c r="D42" t="n">
-        <v>3547.556447221641</v>
+        <v>3448.838013537442</v>
       </c>
       <c r="E42" t="n">
-        <v>40.96707001628112</v>
+        <v>8.532030027618275</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -2460,7 +2460,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>45.44181609585383</v>
+        <v>8.520350553266509</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -2503,7 +2503,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>45.44181609585383</v>
+        <v>8.520350553266509</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2546,7 +2546,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>45.44181609585383</v>
+        <v>8.520350553266509</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -2589,7 +2589,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>45.44181609585383</v>
+        <v>8.520350553266509</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2629,10 +2629,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.041621038311</v>
+        <v>1348.04162103831</v>
       </c>
       <c r="E6" t="n">
-        <v>18.07475056653209</v>
+        <v>3.389019722822153</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -2647,16 +2647,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944169</v>
+        <v>0.05094889585944149</v>
       </c>
       <c r="K6" t="n">
         <v>0.09767435453489641</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173058</v>
+        <v>0.6806996788173059</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002008604154522552</v>
+        <v>0.002008604154522553</v>
       </c>
     </row>
     <row r="7">
@@ -2665,42 +2665,18 @@
           <t>SGaccum-Separacc</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>101.3297933484711</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1347.09691785099</v>
-      </c>
-      <c r="E7" t="n">
-        <v>365775.9950500099</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.168738364456343</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.0503573198627571</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.0975081144748292</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.681387369772999</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.00200883143307171</v>
-      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -2708,42 +2684,18 @@
           <t>Separacc-Sepout</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>101.3297933484711</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1235.421321098116</v>
-      </c>
-      <c r="E8" t="n">
-        <v>336452.9776536557</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.1776861634230223</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.1026787406614215</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.7175197408719294</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.002115355043626928</v>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2751,42 +2703,18 @@
           <t>Sepout-COMB</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>101.3297933484711</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1235.421321098116</v>
-      </c>
-      <c r="E9" t="n">
-        <v>22.2836790037261</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.1776861634230223</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.1026787406614215</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.7175197408719294</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.002115355043626928</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2794,42 +2722,18 @@
           <t>Sepout-GTU</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>101.3297933484711</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1235.421321098116</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1.081111111111111</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.1776861634230223</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1026787406614215</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.7175197408719294</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.002115355043626928</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2837,18 +2741,10 @@
           <t>AIR-COMP</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>15</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>293.1871693088577</v>
-      </c>
-      <c r="E11" t="n">
-        <v>950.7047507486551</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
@@ -2864,18 +2760,10 @@
           <t>COMP-COMB</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>343.3557890055408</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="D12" t="n">
-        <v>631.5000402827663</v>
-      </c>
-      <c r="E12" t="n">
-        <v>950.7047507486551</v>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
@@ -2891,42 +2779,18 @@
           <t>COMB-TURB</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>750</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1184.514157121927</v>
-      </c>
-      <c r="E13" t="n">
-        <v>972.9884321662157</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.7502469630073877</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.1683139237636385</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.01683143083925213</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.009618550807787021</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.05498913158193452</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -2934,42 +2798,18 @@
           <t>TURB-COOL</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>315.3011010300507</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>688.8859089543628</v>
-      </c>
-      <c r="E14" t="n">
-        <v>972.9884321662157</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.7502469630073877</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.1683139237636385</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.01683143083925213</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.009618550807787021</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.05498913158193452</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -2977,42 +2817,18 @@
           <t>COOL-EX</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>70</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>429.2502884968853</v>
-      </c>
-      <c r="E15" t="n">
-        <v>972.9884321662157</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.7502469630073877</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.1683139237636385</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.01683143083925213</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.009618550807787021</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.05498913158193452</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3062,16 +2878,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6672190611676428</v>
+        <v>1.686161642501223</v>
       </c>
       <c r="C2" t="n">
-        <v>0.695214008159727</v>
+        <v>1.864431148753794</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9597319003019107</v>
+        <v>0.9043839691416182</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8074</v>
+        <v>0.2535531252547114</v>
       </c>
     </row>
     <row r="3">
@@ -3104,11 +2920,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>164.3046</v>
+        <v>131.3752264426236</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>34.0120969266214</v>
+        <v>31.82834089321128</v>
       </c>
     </row>
     <row r="6">
@@ -3119,7 +2935,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.298505160346057</v>
+        <v>6.228636289464575</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3131,7 +2947,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>73.18865159646056</v>
+        <v>46.29485341046398</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3144,12 +2960,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33.96569674585376</v>
+        <v>29.96245714378547</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8493064749633633</v>
+        <v>0.8487954741036318</v>
       </c>
     </row>
     <row r="9">
@@ -3159,12 +2975,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.14134449690656</v>
+        <v>11.91067325255337</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8372089948959196</v>
+        <v>0.7875989434441077</v>
       </c>
     </row>
     <row r="10">
@@ -3174,12 +2990,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.378030465369246</v>
+        <v>4.400317033983024</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8149529448943991</v>
+        <v>0.7924982186848352</v>
       </c>
     </row>
     <row r="11">
@@ -3189,12 +3005,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.703579888331</v>
+        <v>0.02140598014211675</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.8491802970917117</v>
+        <v>0.0335706437837035</v>
       </c>
     </row>
     <row r="12">
@@ -3204,16 +3020,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1282762114853548</v>
+        <v>0.04039056642563264</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1325192772545945</v>
+        <v>0.0452655178506074</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9679815204463574</v>
+        <v>0.892303199953133</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4046185165069858</v>
+        <v>0.07642926562499497</v>
       </c>
     </row>
     <row r="13">
@@ -3222,9 +3038,7 @@
           <t>SGgtu_comp</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>321635.6536743118</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
@@ -3235,9 +3049,7 @@
           <t>SGgtu_turb</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>482240.5521218461</v>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
@@ -3285,10 +3097,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42391.23706057701</v>
+        <v>39799.54638587462</v>
       </c>
       <c r="C2" t="n">
-        <v>42819.43137432021</v>
+        <v>40201.56200593396</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3301,10 +3113,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91610.93514232719</v>
+        <v>87744.26287083526</v>
       </c>
       <c r="C3" t="n">
-        <v>92536.29812356281</v>
+        <v>88630.56855639924</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3317,10 +3129,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39825.72677066549</v>
+        <v>34402.08506264778</v>
       </c>
       <c r="C4" t="n">
-        <v>40228.00683905605</v>
+        <v>34749.5808713614</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3333,10 +3145,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>514.921583633409</v>
+        <v>457.8975183978323</v>
       </c>
       <c r="C5" t="n">
-        <v>520.1228117509182</v>
+        <v>462.5227458563963</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3349,10 +3161,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32900.29362914743</v>
+        <v>29550.56994084458</v>
       </c>
       <c r="C6" t="n">
-        <v>33232.61982742165</v>
+        <v>29849.06054630765</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3365,10 +3177,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38930.99621447013</v>
+        <v>32367.81478363472</v>
       </c>
       <c r="C7" t="n">
-        <v>39324.23860047488</v>
+        <v>32694.76240771184</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3381,11 +3193,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>51.66581106687552</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="9">
@@ -3395,11 +3207,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>81.24485077476611</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="10">
@@ -3409,11 +3221,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>7.08086587222624</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="11">
@@ -3423,7 +3235,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>24611.89147367507</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -3435,7 +3247,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>2918.363406656894</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -3447,7 +3259,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>16130.26331813736</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -3459,7 +3271,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>5604.19157265313</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -3471,7 +3283,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>4048.774759453247</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -3483,7 +3295,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>80155.62493005236</v>
+        <v>15029.19737581764</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -3495,7 +3307,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>27600.52711458092</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -3506,9 +3318,7 @@
           <t>SGgtu_Qsw</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>252622.4552834236</v>
-      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
     </row>
@@ -3564,11 +3374,9 @@
           <t>PKM</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>492735715.5557473</v>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>101.3297933484711</v>
+        <v>250</v>
       </c>
       <c r="D3" t="n">
         <v>10000</v>
@@ -3665,16 +3473,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>535.1685348438</v>
+        <v>542.1</v>
       </c>
       <c r="C3" t="n">
         <v>0.1</v>
       </c>
       <c r="D3" t="n">
-        <v>950.6571241658536</v>
+        <v>958.8691985312861</v>
       </c>
       <c r="E3" t="n">
-        <v>372.9369262004089</v>
+        <v>503.8</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -3698,33 +3506,17 @@
           <t>REF-SMESH</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>800</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
         <v>0.1</v>
       </c>
-      <c r="D4" t="n">
-        <v>1531.123730073688</v>
-      </c>
-      <c r="E4" t="n">
-        <v>50.38453751542917</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.710320591016015</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.00996710270335893</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.090538556815177</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.180531273012258</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.008642476453191781</v>
-      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -3732,33 +3524,19 @@
           <t>GTU-PEVD</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>569.8377187833005</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
-      <c r="D5" t="n">
-        <v>1019.745379755581</v>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>423.3214637158381</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.7717940796797779</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.1098758912194497</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.0374462402155577</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.07412337322490289</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.006760415660311905</v>
-      </c>
+        <v>503.8</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -3766,33 +3544,17 @@
           <t>PEVD-IVD</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>478.4928606036818</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
-      <c r="D6" t="n">
-        <v>913.9203599362876</v>
-      </c>
-      <c r="E6" t="n">
-        <v>423.3214637158381</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.7717940796797779</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.1098758912194497</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.0374462402155577</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.07412337322490289</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.006760415660311905</v>
-      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -3800,33 +3562,17 @@
           <t>IVD-EVD</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>263.3321950677819</v>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
-      <c r="D7" t="n">
-        <v>673.497287214387</v>
-      </c>
-      <c r="E7" t="n">
-        <v>423.3214637158381</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.7717940796797779</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.1098758912194497</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.0374462402155577</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.07412337322490289</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.006760415660311905</v>
-      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -3834,33 +3580,17 @@
           <t>EVD-PPND</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>195.6063050200819</v>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
-      <c r="D8" t="n">
-        <v>600.2336472647615</v>
-      </c>
-      <c r="E8" t="n">
-        <v>423.3214637158381</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.7717940796797779</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.1098758912194497</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.0374462402155577</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.07412337322490289</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.006760415660311905</v>
-      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -3868,33 +3598,17 @@
           <t>PPND-IND</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>194.7104738922443</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
-      <c r="D9" t="n">
-        <v>599.2712314009387</v>
-      </c>
-      <c r="E9" t="n">
-        <v>423.3214637158381</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.7717940796797779</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.1098758912194497</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.0374462402155577</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.07412337322490289</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.006760415660311905</v>
-      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -3902,33 +3616,17 @@
           <t>IND-GPK</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>143.8154865925053</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
-      <c r="D10" t="n">
-        <v>544.8473779765551</v>
-      </c>
-      <c r="E10" t="n">
-        <v>423.3214637158381</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.7717940796797779</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.1098758912194497</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.0374462402155577</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.07412337322490289</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.006760415660311905</v>
-      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -3936,33 +3634,17 @@
           <t>GPK-out</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>88.5589578607771</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
-      <c r="D11" t="n">
-        <v>486.2524804622064</v>
-      </c>
-      <c r="E11" t="n">
-        <v>423.3214637158381</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.7717940796797779</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.1098758912194497</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.0374462402155577</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.07412337322490289</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.006760415660311905</v>
-      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -3970,18 +3652,12 @@
           <t>AIR-REF</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>15</v>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
         <v>0.1</v>
       </c>
-      <c r="D12" t="n">
-        <v>288.39</v>
-      </c>
-      <c r="E12" t="n">
-        <v>47.75995874871821</v>
-      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
@@ -3994,18 +3670,12 @@
           <t>CH4-REF</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>15</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="D13" t="n">
-        <v>881.5</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2.624578766710999</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
@@ -4087,16 +3757,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>506.3133034584083</v>
+        <v>506.4436225303843</v>
       </c>
       <c r="C3" t="n">
-        <v>7.927303381991388</v>
+        <v>7.854613655147352</v>
       </c>
       <c r="D3" t="n">
-        <v>3415.945551022296</v>
+        <v>3417.117140711266</v>
       </c>
       <c r="E3" t="n">
-        <v>64.06044208894689</v>
+        <v>64.08860508780606</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4108,16 +3778,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>297.5508807028934</v>
+        <v>296.9622483312407</v>
       </c>
       <c r="C4" t="n">
-        <v>8.2954917654213</v>
+        <v>8.226365505137528</v>
       </c>
       <c r="D4" t="n">
-        <v>2754.213041852372</v>
+        <v>2755.272587632133</v>
       </c>
       <c r="E4" t="n">
-        <v>64.06044208894689</v>
+        <v>64.08860508780606</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4129,16 +3799,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>296.2789186898038</v>
+        <v>295.7421921960955</v>
       </c>
       <c r="C5" t="n">
-        <v>8.2954917654213</v>
+        <v>8.226365505137528</v>
       </c>
       <c r="D5" t="n">
-        <v>1324.154364979883</v>
+        <v>1321.20386808406</v>
       </c>
       <c r="E5" t="n">
-        <v>64.06044208894689</v>
+        <v>64.08860508780606</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4150,16 +3820,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.2090434826771</v>
+        <v>164.9001567545507</v>
       </c>
       <c r="C6" t="n">
-        <v>8.2954917654213</v>
+        <v>8.226365505137528</v>
       </c>
       <c r="D6" t="n">
-        <v>702.4773743635579</v>
+        <v>701.1019731971367</v>
       </c>
       <c r="E6" t="n">
-        <v>64.06044208894689</v>
+        <v>64.08860508780606</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4171,16 +3841,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>163.8128740799996</v>
+        <v>163.5180119499904</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6805473880905354</v>
+        <v>0.6755574152097542</v>
       </c>
       <c r="D7" t="n">
-        <v>692.0619129741217</v>
+        <v>690.7773817143986</v>
       </c>
       <c r="E7" t="n">
-        <v>64.06044208894689</v>
+        <v>64.08860508780606</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4192,16 +3862,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.2197693477678</v>
+        <v>176.9752788475875</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6744018921285251</v>
+        <v>0.6693947825794696</v>
       </c>
       <c r="D8" t="n">
-        <v>2794.588351620187</v>
+        <v>2794.360935247773</v>
       </c>
       <c r="E8" t="n">
-        <v>15.58766652796092</v>
+        <v>15.54541450451033</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4213,16 +3883,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>163.8128739456487</v>
+        <v>163.5180118162583</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6805473880905354</v>
+        <v>0.6755574152097542</v>
       </c>
       <c r="D9" t="n">
-        <v>2761.559175961115</v>
+        <v>2761.246318565466</v>
       </c>
       <c r="E9" t="n">
-        <v>15.58766652796092</v>
+        <v>15.54541450451033</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4234,16 +3904,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>161.9564904627047</v>
+        <v>161.6324576197048</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6805473880905354</v>
+        <v>0.6755574152097542</v>
       </c>
       <c r="D10" t="n">
-        <v>683.9973800394521</v>
+        <v>682.5879604621733</v>
       </c>
       <c r="E10" t="n">
-        <v>79.64810861690781</v>
+        <v>79.63401959231639</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4255,16 +3925,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>161.9564904627047</v>
+        <v>161.6324576197048</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6805473880905354</v>
+        <v>0.6755574152097542</v>
       </c>
       <c r="D11" t="n">
-        <v>683.9973800394521</v>
+        <v>682.5879604621733</v>
       </c>
       <c r="E11" t="n">
-        <v>90.06335490135663</v>
+        <v>90.17210915192879</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4279,13 +3949,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6805473880905354</v>
+        <v>0.6755574152097542</v>
       </c>
       <c r="D12" t="n">
-        <v>251.7350847928643</v>
+        <v>251.7308948475174</v>
       </c>
       <c r="E12" t="n">
-        <v>90.06161378205236</v>
+        <v>90.18034550435881</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4297,16 +3967,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.47972551140316</v>
+        <v>46.3487922318613</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>195.2186502300161</v>
+        <v>194.6714751224368</v>
       </c>
       <c r="E13" t="n">
-        <v>74.86815086859305</v>
+        <v>74.16043791425415</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4318,16 +3988,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.47972551140316</v>
+        <v>46.3487922318613</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>195.2186502300161</v>
+        <v>194.6714751224368</v>
       </c>
       <c r="E14" t="n">
-        <v>74.86815086859305</v>
+        <v>74.16043791425415</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4339,16 +4009,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>86.21796609247804</v>
+        <v>78.91488528633431</v>
       </c>
       <c r="C15" t="n">
-        <v>0.06068602252239569</v>
+        <v>0.04536925362976062</v>
       </c>
       <c r="D15" t="n">
-        <v>361.1340212460258</v>
+        <v>330.4570733206295</v>
       </c>
       <c r="E15" t="n">
-        <v>13.51172419062353</v>
+        <v>59.55945719846321</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4360,16 +4030,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>51.13389230984245</v>
+        <v>50.23846651509615</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06068601348140216</v>
+        <v>0.04536943219541079</v>
       </c>
       <c r="D16" t="n">
-        <v>214.1249289326391</v>
+        <v>210.3673850265696</v>
       </c>
       <c r="E16" t="n">
-        <v>13.51188987756004</v>
+        <v>59.5585328095963</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -4390,7 +4060,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>149.652616588064</v>
+        <v>626.5503871862227</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -4411,7 +4081,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>18.85187684797621</v>
+        <v>78.92712474783789</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -4423,16 +4093,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>67.81368019364928</v>
+        <v>64.32679058015557</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>283.9358789708095</v>
+        <v>269.3362721591114</v>
       </c>
       <c r="E19" t="n">
-        <v>18.85187684797621</v>
+        <v>78.92712474783789</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -4444,16 +4114,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>140.6668844644918</v>
+        <v>102.8716595860871</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09355726155417098</v>
+        <v>0.1122509340334003</v>
       </c>
       <c r="D20" t="n">
-        <v>2758.568248171277</v>
+        <v>2650.34649508532</v>
       </c>
       <c r="E20" t="n">
-        <v>2.703064888423513</v>
+        <v>23.45281797715842</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -4465,16 +4135,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>96.34352834873332</v>
+        <v>101.4125638070703</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08887939847646242</v>
+        <v>0.1066383873317303</v>
       </c>
       <c r="D21" t="n">
-        <v>403.7496952295415</v>
+        <v>425.1261400232353</v>
       </c>
       <c r="E21" t="n">
-        <v>2.703064888423513</v>
+        <v>23.45281797715842</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -4486,16 +4156,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>86.20646669885755</v>
+        <v>76.56884406672944</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>360.9464760681166</v>
+        <v>320.5937501073962</v>
       </c>
       <c r="E22" t="n">
-        <v>149.652616588064</v>
+        <v>626.5503871862227</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -4516,7 +4186,7 @@
         <v>403.05449408507</v>
       </c>
       <c r="E23" t="n">
-        <v>149.652616588064</v>
+        <v>626.5503871862227</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -4528,7 +4198,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>46.03839905742083</v>
+        <v>45.59915238686636</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -4537,7 +4207,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>149.652616588064</v>
+        <v>626.5503871862227</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -4549,16 +4219,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111.0445873585946</v>
+        <v>80.17792906229545</v>
       </c>
       <c r="C25" t="n">
-        <v>0.06388002370778494</v>
+        <v>0.04775710908395855</v>
       </c>
       <c r="D25" t="n">
-        <v>2702.606974447627</v>
+        <v>2541.825298873012</v>
       </c>
       <c r="E25" t="n">
-        <v>10.80865406005439</v>
+        <v>36.10672295036716</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -4570,19 +4240,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>503.4260226416751</v>
+        <v>503.527444671315</v>
       </c>
       <c r="C26" t="n">
-        <v>7.3215791626587</v>
+        <v>7.242504060033086</v>
       </c>
       <c r="D26" t="n">
-        <v>3415.945551022296</v>
+        <v>3417.117140711266</v>
       </c>
       <c r="E26" t="n">
-        <v>59.28048434063214</v>
+        <v>58.61502340974381</v>
       </c>
       <c r="F26" t="n">
-        <v>6.786258709088245</v>
+        <v>6.792495596451634</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -4595,19 +4265,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>194.5607110243654</v>
+        <v>194.8899908101889</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5214235791241987</v>
+        <v>0.516635799763165</v>
       </c>
       <c r="D27" t="n">
-        <v>2842.979639497634</v>
+        <v>2843.953530585768</v>
       </c>
       <c r="E27" t="n">
-        <v>59.28048434063214</v>
+        <v>58.61502340974381</v>
       </c>
       <c r="F27" t="n">
-        <v>7.014868013002267</v>
+        <v>7.021082111494803</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -4620,19 +4290,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>174.7191917978662</v>
+        <v>174.4645525767351</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5905718280849355</v>
+        <v>0.5854096894565082</v>
       </c>
       <c r="D28" t="n">
-        <v>2794.588351620187</v>
+        <v>2794.360935247773</v>
       </c>
       <c r="E28" t="n">
-        <v>15.58766652796092</v>
+        <v>15.54541450451033</v>
       </c>
       <c r="F28" t="n">
-        <v>6.85364788629715</v>
+        <v>6.8570255345799</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -4645,19 +4315,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>189.9269192541083</v>
+        <v>190.1014435799</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5214235791241987</v>
+        <v>0.516635799763165</v>
       </c>
       <c r="D29" t="n">
-        <v>2832.904497403953</v>
+        <v>2833.557995276564</v>
       </c>
       <c r="E29" t="n">
-        <v>74.86815086859305</v>
+        <v>74.16043791425415</v>
       </c>
       <c r="F29" t="n">
-        <v>6.993219081861808</v>
+        <v>6.998756802605191</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -4670,22 +4340,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>126.3556726221171</v>
+        <v>126.0422970759914</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2420925577399319</v>
+        <v>0.2397849462079749</v>
       </c>
       <c r="D30" t="n">
-        <v>2710.805255057882</v>
+        <v>2711.343783185079</v>
       </c>
       <c r="E30" t="n">
-        <v>74.86815086859305</v>
+        <v>74.16043791425415</v>
       </c>
       <c r="F30" t="n">
-        <v>7.052646455553649</v>
+        <v>7.05828656504569</v>
       </c>
       <c r="G30" t="n">
-        <v>99.80749653749584</v>
+        <v>99.8523975401052</v>
       </c>
     </row>
     <row r="31">
@@ -4695,22 +4365,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>110.4697532474319</v>
+        <v>110.1839887544601</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1456559129739893</v>
+        <v>0.1442671126877773</v>
       </c>
       <c r="D31" t="n">
-        <v>2638.971899979985</v>
+        <v>2639.52116535369</v>
       </c>
       <c r="E31" t="n">
-        <v>74.86815086859305</v>
+        <v>74.16043791425415</v>
       </c>
       <c r="F31" t="n">
-        <v>7.095164651996865</v>
+        <v>7.100830186979828</v>
       </c>
       <c r="G31" t="n">
-        <v>97.63044981061493</v>
+        <v>97.67536294387601</v>
       </c>
     </row>
     <row r="32">
@@ -4720,22 +4390,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>110.4697532474319</v>
+        <v>110.1839887544601</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1456559129739893</v>
+        <v>0.1442671126877773</v>
       </c>
       <c r="D32" t="n">
-        <v>2638.971899979985</v>
+        <v>2639.52116535369</v>
       </c>
       <c r="E32" t="n">
-        <v>74.86815086859305</v>
+        <v>74.16043791425415</v>
       </c>
       <c r="F32" t="n">
-        <v>7.095164651996865</v>
+        <v>7.100830186979828</v>
       </c>
       <c r="G32" t="n">
-        <v>97.63044981061493</v>
+        <v>97.67536294387601</v>
       </c>
     </row>
     <row r="33">
@@ -4745,22 +4415,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>46.21277199990021</v>
+        <v>46.01212629704924</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01020966076623527</v>
+        <v>0.01010569160146426</v>
       </c>
       <c r="D33" t="n">
-        <v>2309.010766951734</v>
+        <v>2308.992442776901</v>
       </c>
       <c r="E33" t="n">
-        <v>74.86815086859305</v>
+        <v>74.16043791425415</v>
       </c>
       <c r="F33" t="n">
-        <v>7.278664905679039</v>
+        <v>7.282773008288449</v>
       </c>
       <c r="G33" t="n">
-        <v>88.47507111033079</v>
+        <v>88.4915283535575</v>
       </c>
     </row>
     <row r="34">
@@ -4770,16 +4440,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.21277199908093</v>
+        <v>46.01212629828052</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01020966076623527</v>
+        <v>0.01010569160146426</v>
       </c>
       <c r="D34" t="n">
-        <v>193.5052886737717</v>
+        <v>192.6663814785539</v>
       </c>
       <c r="E34" t="n">
-        <v>74.86815086859305</v>
+        <v>74.16043791425415</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -4791,16 +4461,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.47972551140316</v>
+        <v>46.3487922318613</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>195.2186502300161</v>
+        <v>194.6714751224368</v>
       </c>
       <c r="E35" t="n">
-        <v>74.86815086859305</v>
+        <v>74.16043791425415</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -4896,16 +4566,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>527.7552478383965</v>
+        <v>499.8058029673687</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3529.59526533892</v>
+        <v>3467.812673377135</v>
       </c>
       <c r="E40" t="n">
-        <v>38.57371675874336</v>
+        <v>7.232580410818838</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -4938,16 +4608,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>542.7552478383965</v>
+        <v>514.8058029673687</v>
       </c>
       <c r="C42" t="n">
-        <v>3.607261357686788</v>
+        <v>6.852693243694575</v>
       </c>
       <c r="D42" t="n">
-        <v>3547.556447221641</v>
+        <v>3448.838013537442</v>
       </c>
       <c r="E42" t="n">
-        <v>40.96707001628112</v>
+        <v>8.532030027618275</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -5049,7 +4719,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>45.44181609585383</v>
+        <v>8.520350553266509</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -5092,7 +4762,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>45.44181609585383</v>
+        <v>8.520350553266509</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -5135,7 +4805,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>45.44181609585383</v>
+        <v>8.520350553266509</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -5178,7 +4848,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>45.44181609585383</v>
+        <v>8.520350553266509</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -5218,10 +4888,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.041621038311</v>
+        <v>1348.04162103831</v>
       </c>
       <c r="E6" t="n">
-        <v>18.07475056653209</v>
+        <v>3.389019722822153</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -5236,16 +4906,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944169</v>
+        <v>0.05094889585944149</v>
       </c>
       <c r="K6" t="n">
         <v>0.09767435453489641</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173058</v>
+        <v>0.6806996788173059</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002008604154522552</v>
+        <v>0.002008604154522553</v>
       </c>
     </row>
     <row r="7">
@@ -5264,7 +4934,7 @@
         <v>1347.09691785099</v>
       </c>
       <c r="E7" t="n">
-        <v>365775.9950500099</v>
+        <v>68582.99907187685</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -5307,7 +4977,7 @@
         <v>1235.421321098116</v>
       </c>
       <c r="E8" t="n">
-        <v>336452.9776536557</v>
+        <v>63084.93331006043</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -5350,7 +5020,7 @@
         <v>1235.421321098116</v>
       </c>
       <c r="E9" t="n">
-        <v>22.2836790037261</v>
+        <v>3.299787035420863</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -5436,7 +5106,7 @@
         <v>293.1871693088577</v>
       </c>
       <c r="E11" t="n">
-        <v>950.7047507486551</v>
+        <v>140.7812042475076</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -5463,7 +5133,7 @@
         <v>631.5000402827663</v>
       </c>
       <c r="E12" t="n">
-        <v>950.7047507486551</v>
+        <v>140.7812042475076</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -5490,22 +5160,22 @@
         <v>1184.514157121927</v>
       </c>
       <c r="E13" t="n">
-        <v>972.9884321662157</v>
+        <v>144.080993696763</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7502469630073877</v>
+        <v>0.7502469630073878</v>
       </c>
       <c r="G13" t="n">
         <v>0.1683139237636385</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01683143083925213</v>
+        <v>0.01683143083925214</v>
       </c>
       <c r="I13" t="n">
-        <v>0.009618550807787021</v>
+        <v>0.009618550807787023</v>
       </c>
       <c r="J13" t="n">
-        <v>0.05498913158193452</v>
+        <v>0.05498913158193455</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -5524,31 +5194,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>315.3011010300507</v>
+        <v>315.3011010300506</v>
       </c>
       <c r="C14" t="n">
         <v>0.1</v>
       </c>
       <c r="D14" t="n">
-        <v>688.8859089543628</v>
+        <v>688.8859089543629</v>
       </c>
       <c r="E14" t="n">
-        <v>972.9884321662157</v>
+        <v>144.080993696763</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7502469630073877</v>
+        <v>0.7502469630073878</v>
       </c>
       <c r="G14" t="n">
         <v>0.1683139237636385</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01683143083925213</v>
+        <v>0.01683143083925214</v>
       </c>
       <c r="I14" t="n">
-        <v>0.009618550807787021</v>
+        <v>0.009618550807787023</v>
       </c>
       <c r="J14" t="n">
-        <v>0.05498913158193452</v>
+        <v>0.05498913158193455</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -5576,22 +5246,22 @@
         <v>429.2502884968853</v>
       </c>
       <c r="E15" t="n">
-        <v>972.9884321662157</v>
+        <v>144.080993696763</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7502469630073877</v>
+        <v>0.7502469630073878</v>
       </c>
       <c r="G15" t="n">
         <v>0.1683139237636385</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01683143083925213</v>
+        <v>0.01683143083925214</v>
       </c>
       <c r="I15" t="n">
-        <v>0.009618550807787021</v>
+        <v>0.009618550807787023</v>
       </c>
       <c r="J15" t="n">
-        <v>0.05498913158193452</v>
+        <v>0.05498913158193455</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
